--- a/copy.xlsx
+++ b/copy.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEXP\Documents\!Учёба\Статистика\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC35E9-32E6-41AD-8F57-6657E669FC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{54D46062-1294-4885-942E-EF1A9A324B3C}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 17" sheetId="1" r:id="rId1"/>
@@ -18,6 +12,7 @@
     <sheet name="values" sheetId="7" r:id="rId3"/>
     <sheet name="freq" sheetId="9" r:id="rId4"/>
     <sheet name="emp" sheetId="10" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="d">values!$B$10</definedName>
@@ -25,8 +20,8 @@
     <definedName name="h">values!$B$4</definedName>
     <definedName name="mi" localSheetId="3">freq!$B1</definedName>
     <definedName name="mi_t" localSheetId="3">freq!$F1</definedName>
+    <definedName name="ms">Лист1!$B$2:$B$101</definedName>
     <definedName name="n">values!$B$1</definedName>
-    <definedName name="ns">emp!$E$2:$E$14</definedName>
     <definedName name="nx">emp!$B1</definedName>
     <definedName name="q">values!$B$12</definedName>
     <definedName name="s">values!$B$7</definedName>
@@ -37,15 +32,17 @@
     <definedName name="x_max">values!$B$2</definedName>
     <definedName name="x_min">values!$B$3</definedName>
     <definedName name="xi" localSheetId="4">emp!$D1</definedName>
-    <definedName name="xi_x0_2">emp!$F$2:$F$14</definedName>
-    <definedName name="xs">emp!$D$2:$D$14</definedName>
+    <definedName name="xi" localSheetId="5">Лист1!$A1</definedName>
+    <definedName name="xi_x0_2">Лист1!$C$2:$C$101</definedName>
+    <definedName name="xnr">data!$B$2:$B$101</definedName>
+    <definedName name="xs">Лист1!$A$2:$A$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>h</t>
   </si>
@@ -286,31 +283,6 @@
   </si>
   <si>
     <r>
-      <t>(mᵢ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>⁰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> – mᵢͭ)² / mᵢͭ</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -351,12 +323,96 @@
   <si>
     <t>χ²</t>
   </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ᵢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>⁰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mᵢͭ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)² / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mᵢͭ</t>
+    </r>
+  </si>
+  <si>
+    <t>Мода</t>
+  </si>
+  <si>
+    <t>Медиана</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,24 +941,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -942,21 +998,10 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -985,13 +1030,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1015,7 +1058,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>freq!$C$2:$C$11</c:f>
@@ -1094,35 +1136,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7061-4F99-A0E6-57F58256E627}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="5"/>
         <c:overlap val="-27"/>
-        <c:axId val="622640680"/>
-        <c:axId val="622641040"/>
+        <c:axId val="104928000"/>
+        <c:axId val="104929536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="622640680"/>
+        <c:axId val="104928000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1157,19 +1189,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622641040"/>
+        <c:crossAx val="104929536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622641040"/>
+        <c:axId val="104929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1187,7 +1217,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1216,7 +1245,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622640680"/>
+        <c:crossAx val="104928000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,7 +1259,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1261,14 +1289,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1297,28 +1324,17 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1347,12 +1363,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2411,32 +2425,22 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1262-4FA5-A4E7-83C9D178EE9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="544188488"/>
-        <c:axId val="544190648"/>
+        <c:axId val="153202048"/>
+        <c:axId val="153207936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="544188488"/>
+        <c:axId val="153202048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.8"/>
           <c:min val="2.9"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2454,7 +2458,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2489,18 +2492,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544190648"/>
+        <c:crossAx val="153207936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544190648"/>
+        <c:axId val="153207936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2518,7 +2520,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2553,7 +2554,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544188488"/>
+        <c:crossAx val="153202048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2567,7 +2568,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2598,14 +2598,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2634,7 +2633,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3759,7 +3758,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB328F1F-A688-89DE-30B1-ACA0E54DEDEC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB328F1F-A688-89DE-30B1-ACA0E54DEDEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,7 +3767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3803,7 +3802,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEED66FB-A3E8-9133-AAB5-63F621C591D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEED66FB-A3E8-9133-AAB5-63F621C591D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,7 +3811,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3852,7 +3851,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A21C9A-99BD-1172-DB08-DB8E5E2D714E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A21C9A-99BD-1172-DB08-DB8E5E2D714E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,23 +3876,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE55C99-65F9-D163-BE68-6798F8A35F63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE55C99-65F9-D163-BE68-6798F8A35F63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,7 +3956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4009,7 +4008,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4203,21 +4202,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F96F02D-8901-441B-B4FB-410EC1E4C636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>3.4</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>3.4</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>3.2</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3.2</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3.2</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4544,616 +4543,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE236E83-0CDD-48C3-9FE8-96053E7D1461}">
-  <dimension ref="A1:A101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A1))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>A2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A2))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f>IF(A3&lt;&gt;A2,A3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A3))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B67" si="0">IF(A4&lt;&gt;A3,A4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A4))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A5))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A6))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A7))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A8))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A9))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A10))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A11))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A12))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A13))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A14))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A15))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A16))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A17))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A18))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A19))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A20))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A21))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A22))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A23))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A24))</f>
         <v>3.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A25))</f>
         <v>3.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A26))</f>
         <v>3.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A27))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A28))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A29))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A30))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A31))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A32))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A33))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A34))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A35))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A36))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A37))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A38))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A39))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A40))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A41))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A42))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A43))</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A44))</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A45))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A46))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A47))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A48))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A49))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A50))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A51))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A52))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A53))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A54))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A55))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A56))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A57))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A58))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A59))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A60))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A61))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A62))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A63))</f>
         <v>3.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A64))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A65))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A66))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A67))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B101" si="1">IF(A68&lt;&gt;A67,A68,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A68))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A69))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A70))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A71))</f>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A72))</f>
         <v>3.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A73))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A74))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A75))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A76))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A77))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A78))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A79))</f>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A80))</f>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A81))</f>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A82))</f>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A83))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A84))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A85))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A86))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A87))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A88))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A89))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A90))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A91))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A92))</f>
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A93))</f>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A94))</f>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A95))</f>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A96))</f>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A97))</f>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A98))</f>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A99))</f>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <f>SMALL('Вариант 17'!$A$1:$J$10,ROW(A100))</f>
         <v>4.5999999999999996</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -5162,20 +5566,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979EABAE-25AE-4A58-96D2-572A8B07E2CB}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -5184,7 +5588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5194,17 +5598,17 @@
       </c>
       <c r="D2">
         <f>x_0-t_gamma*s/SQRT(n)</f>
-        <v>10.926346659374865</v>
+        <v>3.3631638961664305</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <f>x_0+t_gamma*s/SQRT(n)</f>
-        <v>49.727653340625132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.6028361038335697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5213,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5223,44 +5627,44 @@
       </c>
       <c r="D4">
         <f>s*(1-q)</f>
-        <v>59.228488691211872</v>
+        <v>0.36584908745535932</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F4">
         <f>s*(1+q)</f>
-        <v>88.4734781197903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.5464927765230928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5">
-        <f>SUMPRODUCT(xs,ns)/n</f>
-        <v>30.326999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUMPRODUCT(xs,ms)/n</f>
+        <v>3.4830000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <f>SUMPRODUCT(xi_x0_2,ns)/(n-1)</f>
-        <v>5453.9677499595955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUMPRODUCT(xi_x0_2,ms)/(n-1)</f>
+        <v>0.20809191919191913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <f>SQRT(B6)</f>
-        <v>73.850983405501083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.45617093198922609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -5268,7 +5672,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5276,7 +5680,7 @@
         <v>2.6269999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -5287,7 +5691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -5296,7 +5700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -5304,13 +5708,31 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <f>SUM(freq!G2:G11)</f>
-        <v>451.5686462843812</v>
+        <v>198.01642847894334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>MODE(X)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f>MEDIAN(X)</f>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -5319,40 +5741,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CF19EF-DDB0-41D2-A26D-9EAC31BB3319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <f>MIN(X)</f>
         <v>3</v>
@@ -5366,265 +5791,265 @@
         <v>3.08</v>
       </c>
       <c r="D2">
-        <f>(A2-x_0)/s</f>
-        <v>-0.37002892500365053</v>
+        <f t="shared" ref="D2:D12" si="0">(A2-x_0)/s</f>
+        <v>-1.0588136291231456</v>
       </c>
       <c r="E2">
         <f>D3-D2</f>
-        <v>2.1665249753205496E-3</v>
+        <v>0.35074571565155988</v>
       </c>
       <c r="F2">
-        <f>E2*n</f>
-        <v>0.21665249753205496</v>
+        <f t="shared" ref="F2:F11" si="1">E2*n</f>
+        <v>35.074571565155985</v>
       </c>
       <c r="G2">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>119.00784803393809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G2:G11" si="2">(mi-mi_t)^2/mi_t</f>
+        <v>2.3477934417007704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <f t="shared" ref="A3:A12" si="0">A2+h</f>
+        <f t="shared" ref="A3:A12" si="3">A2+h</f>
         <v>3.16</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B10" si="1">COUNTIFS(X,"&gt;="&amp;A3,X,"&lt;"&amp;A4)</f>
+        <f t="shared" ref="B3:B10" si="4">COUNTIFS(X,"&gt;="&amp;A3,X,"&lt;"&amp;A4)</f>
         <v>18</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="2">(A3+A4)/2</f>
+        <f t="shared" ref="C3:C11" si="5">(A3+A4)/2</f>
         <v>3.24</v>
       </c>
       <c r="D3">
-        <f>(A3-x_0)/s</f>
-        <v>-0.36786240002832998</v>
+        <f t="shared" si="0"/>
+        <v>-0.70806791347158571</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="3">D4-D3</f>
-        <v>2.1665249753205496E-3</v>
+        <f t="shared" ref="E3:E11" si="6">D4-D3</f>
+        <v>0.35074571565155982</v>
       </c>
       <c r="F3">
-        <f>E3*n</f>
-        <v>0.21665249753205496</v>
+        <f t="shared" si="1"/>
+        <v>35.074571565155985</v>
       </c>
       <c r="G3">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>82.08235633118791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>8.312032937937806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.3200000000000003</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="D4">
-        <f>(A4-x_0)/s</f>
-        <v>-0.36569587505300943</v>
+        <f t="shared" si="0"/>
+        <v>-0.35732219782002589</v>
       </c>
       <c r="E4">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155988</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>35.074571565155985</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>7.3669282181628892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <f t="shared" si="3"/>
-        <v>2.166524975320494E-3</v>
-      </c>
-      <c r="F4">
-        <f>E4*n</f>
-        <v>0.2166524975320494</v>
-      </c>
-      <c r="G4">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>86.698042794033938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
         <v>3.4800000000000004</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.5600000000000005</v>
       </c>
       <c r="D5">
-        <f>(A5-x_0)/s</f>
-        <v>-0.36352935007768894</v>
+        <f t="shared" si="0"/>
+        <v>-6.576482168466017E-3</v>
       </c>
       <c r="E5">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155982</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>35.074571565155985</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>20.899255293112887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <f t="shared" si="3"/>
-        <v>2.1665249753205496E-3</v>
-      </c>
-      <c r="F5">
-        <f>E5*n</f>
-        <v>0.21665249753205496</v>
-      </c>
-      <c r="G5">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>35.925491702750186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
         <v>3.6400000000000006</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7200000000000006</v>
       </c>
       <c r="D6">
-        <f>(A6-x_0)/s</f>
-        <v>-0.36136282510236839</v>
+        <f t="shared" si="0"/>
+        <v>0.34416923348309381</v>
       </c>
       <c r="E6">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155988</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>35.074571565155985</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>33.103082248405308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <f t="shared" si="3"/>
-        <v>2.1665249753205496E-3</v>
-      </c>
-      <c r="F6">
-        <f>E6*n</f>
-        <v>0.21665249753205496</v>
-      </c>
-      <c r="G6">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>3.6156864628437728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
         <v>3.8000000000000007</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8800000000000008</v>
       </c>
       <c r="D7">
-        <f>(A7-x_0)/s</f>
-        <v>-0.35919630012704784</v>
+        <f t="shared" si="0"/>
+        <v>0.69491494913465368</v>
       </c>
       <c r="E7">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155976</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>35.074571565155978</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>17.92563989008864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <f t="shared" si="3"/>
-        <v>2.166524975320494E-3</v>
-      </c>
-      <c r="F7">
-        <f>E7*n</f>
-        <v>0.2166524975320494</v>
-      </c>
-      <c r="G7">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>45.15686462843891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
         <v>3.9600000000000009</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0400000000000009</v>
       </c>
       <c r="D8">
-        <f>(A8-x_0)/s</f>
-        <v>-0.35702977515172735</v>
+        <f t="shared" si="0"/>
+        <v>1.0456606647862134</v>
       </c>
       <c r="E8">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155988</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>35.074571565155985</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>17.925639890088643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <f t="shared" si="3"/>
-        <v>2.1665249753205496E-3</v>
-      </c>
-      <c r="F8">
-        <f>E8*n</f>
-        <v>0.21665249753205496</v>
-      </c>
-      <c r="G8">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>45.156864628437731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
         <v>4.120000000000001</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.2000000000000011</v>
       </c>
       <c r="D9">
-        <f>(A9-x_0)/s</f>
-        <v>-0.3548632501764068</v>
+        <f t="shared" si="0"/>
+        <v>1.3964063804377733</v>
       </c>
       <c r="E9">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155988</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>35.074571565155985</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>35.074571565155985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <f t="shared" si="3"/>
-        <v>2.1665249753205496E-3</v>
-      </c>
-      <c r="F9">
-        <f>E9*n</f>
-        <v>0.21665249753205496</v>
-      </c>
-      <c r="G9">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
         <v>4.2800000000000011</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.3600000000000012</v>
       </c>
       <c r="D10">
-        <f>(A10-x_0)/s</f>
-        <v>-0.35269672520108625</v>
+        <f t="shared" si="0"/>
+        <v>1.7471520960893332</v>
       </c>
       <c r="E10">
+        <f t="shared" si="6"/>
+        <v>0.3507457156515601</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>35.074571565156006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>27.53074249714523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <f t="shared" si="3"/>
-        <v>2.166524975320494E-3</v>
-      </c>
-      <c r="F10">
-        <f>E10*n</f>
-        <v>0.2166524975320494</v>
-      </c>
-      <c r="G10">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>17.462745851375566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
         <v>4.4400000000000013</v>
       </c>
       <c r="B11">
@@ -5632,34 +6057,34 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.5200000000000014</v>
       </c>
       <c r="D11">
-        <f>(A11-x_0)/s</f>
-        <v>-0.35053020022576575</v>
+        <f t="shared" si="0"/>
+        <v>2.0978978117408933</v>
       </c>
       <c r="E11">
+        <f t="shared" si="6"/>
+        <v>0.35074571565155965</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>35.074571565155964</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>27.530742497145191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <f t="shared" si="3"/>
-        <v>2.1665249753205496E-3</v>
-      </c>
-      <c r="F11">
-        <f>E11*n</f>
-        <v>0.21665249753205496</v>
-      </c>
-      <c r="G11">
-        <f>(mi-mi_t)/mi_t</f>
-        <v>17.462745851375093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
       </c>
       <c r="D12">
-        <f>(A12-x_0)/s</f>
-        <v>-0.3483636752504452</v>
+        <f t="shared" si="0"/>
+        <v>2.4486435273924529</v>
       </c>
     </row>
   </sheetData>
@@ -5669,2541 +6094,2391 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EDD288-C840-42EA-A0BC-F75057B236BF}">
-  <dimension ref="A1:F170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <f>MIN(X)</f>
         <v>3</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" ref="B2:B33" si="0">COUNTIF(X,"&lt;"&amp;x_)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>nx/n</f>
+        <f t="shared" ref="C2:C33" si="1">nx/n</f>
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>(xi-x_0)^2</f>
-        <v>746.76492899999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <f>A2+0.01</f>
         <v>3.01</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C3">
-        <f>nx/n</f>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D3">
-        <v>3.1</v>
-      </c>
-      <c r="E3">
-        <f>VLOOKUP(xi,A:B,2)</f>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="2">A3+0.01</f>
+        <v>3.0199999999999996</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F3">
-        <f>(xi-x_0)^2</f>
-        <v>741.30952899999977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+0.01</f>
-        <v>3.0199999999999996</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>3.0299999999999994</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C4">
-        <f>nx/n</f>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D4">
-        <v>3.2</v>
-      </c>
-      <c r="E4">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <f>(xi-x_0)^2</f>
-        <v>735.87412899999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3.0299999999999994</v>
-      </c>
-      <c r="B5">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>3.0399999999999991</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C5">
-        <f>nx/n</f>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D5">
-        <v>3.3</v>
-      </c>
-      <c r="E5">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>42</v>
-      </c>
-      <c r="F5">
-        <f>(xi-x_0)^2</f>
-        <v>730.45872899999983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>3.0399999999999991</v>
-      </c>
-      <c r="B6">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>3.0499999999999989</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C6">
-        <f>nx/n</f>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D6">
-        <v>3.4</v>
-      </c>
-      <c r="E6">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <f>(xi-x_0)^2</f>
-        <v>725.06332899999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>3.0499999999999989</v>
-      </c>
-      <c r="B7">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>3.0599999999999987</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C7">
-        <f>nx/n</f>
+      <c r="C8">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D7">
-        <v>3.6</v>
-      </c>
-      <c r="E7">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>63</v>
-      </c>
-      <c r="F7">
-        <f>(xi-x_0)^2</f>
-        <v>714.33252899999979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>3.0599999999999987</v>
-      </c>
-      <c r="B8">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>3.0699999999999985</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C8">
-        <f>nx/n</f>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D8">
-        <v>3.7</v>
-      </c>
-      <c r="E8">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>71</v>
-      </c>
-      <c r="F8">
-        <f>(xi-x_0)^2</f>
-        <v>708.99712899999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>3.0699999999999985</v>
-      </c>
-      <c r="B9">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <f t="shared" si="2"/>
+        <v>3.0799999999999983</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C9">
-        <f>nx/n</f>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D9">
-        <v>3.8</v>
-      </c>
-      <c r="E9">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>72</v>
-      </c>
-      <c r="F9">
-        <f>(xi-x_0)^2</f>
-        <v>703.6817289999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>3.0799999999999983</v>
-      </c>
-      <c r="B10">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <f t="shared" si="2"/>
+        <v>3.0899999999999981</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C10">
-        <f>nx/n</f>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D10">
-        <v>3.9</v>
-      </c>
-      <c r="E10">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>79</v>
-      </c>
-      <c r="F10">
-        <f>(xi-x_0)^2</f>
-        <v>698.38632899999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>3.0899999999999981</v>
-      </c>
-      <c r="B11">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <f>nx/n</f>
-        <v>0.23</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <f>VLOOKUP(xi,A:B,2)</f>
-        <v>82</v>
-      </c>
-      <c r="F11">
-        <f>(xi-x_0)^2</f>
-        <v>693.11092899999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <f>A11+0.01</f>
         <v>3.0999999999999979</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C12">
-        <f>nx/n</f>
+        <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="D12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E12">
-        <f>VLOOKUP(xi,A:B,2)</f>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>3.1099999999999977</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>3.1199999999999974</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>3.1299999999999972</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>3.139999999999997</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>3.1499999999999968</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>3.1599999999999966</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>3.1699999999999964</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>3.1799999999999962</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>3.1899999999999959</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999957</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>3.2099999999999955</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>3.2199999999999953</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>3.2299999999999951</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>3.2399999999999949</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>3.2499999999999947</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>3.2599999999999945</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>3.2699999999999942</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>3.279999999999994</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>3.2899999999999938</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>3.2999999999999936</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>3.3099999999999934</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>3.3199999999999932</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B65" si="3">COUNTIF(X,"&lt;"&amp;x_)</f>
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C65" si="4">nx/n</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>3.329999999999993</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>3.3399999999999928</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>3.3499999999999925</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>3.3599999999999923</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>3.3699999999999921</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>3.3799999999999919</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>3.3899999999999917</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>3.3999999999999915</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>3.4099999999999913</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>3.419999999999991</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>3.4299999999999908</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>3.4399999999999906</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>3.4499999999999904</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>3.4599999999999902</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>3.46999999999999</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>3.4799999999999898</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>3.4899999999999896</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>3.4999999999999893</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>3.5099999999999891</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>3.5199999999999889</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>3.5299999999999887</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>3.5399999999999885</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>3.5499999999999883</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>3.5599999999999881</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>3.5699999999999878</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>3.5799999999999876</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>3.5899999999999874</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999872</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>3.609999999999987</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>3.6199999999999868</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>3.6299999999999866</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>3.6399999999999864</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B97" si="5">COUNTIF(X,"&lt;"&amp;x_)</f>
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C97" si="6">nx/n</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>3.6499999999999861</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="7">A67+0.01</f>
+        <v>3.6599999999999859</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>3.6699999999999857</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>3.6799999999999855</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>3.6899999999999853</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>3.6999999999999851</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>3.7099999999999849</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <f t="shared" si="7"/>
+        <v>3.7199999999999847</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>3.7299999999999844</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>3.7399999999999842</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>3.749999999999984</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>3.7599999999999838</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <f t="shared" si="7"/>
+        <v>3.7699999999999836</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <f t="shared" si="7"/>
+        <v>3.7799999999999834</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <f t="shared" si="7"/>
+        <v>3.7899999999999832</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <f t="shared" si="7"/>
+        <v>3.7999999999999829</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <f t="shared" si="7"/>
+        <v>3.8099999999999827</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <f t="shared" si="7"/>
+        <v>3.8199999999999825</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <f t="shared" si="7"/>
+        <v>3.8299999999999823</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <f t="shared" si="7"/>
+        <v>3.8399999999999821</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <f t="shared" si="7"/>
+        <v>3.8499999999999819</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <f t="shared" si="7"/>
+        <v>3.8599999999999817</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <f t="shared" si="7"/>
+        <v>3.8699999999999815</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <f t="shared" si="7"/>
+        <v>3.8799999999999812</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <f t="shared" si="7"/>
+        <v>3.889999999999981</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <f t="shared" si="7"/>
+        <v>3.8999999999999808</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f t="shared" si="7"/>
+        <v>3.9099999999999806</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f t="shared" si="7"/>
+        <v>3.9199999999999804</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f t="shared" si="7"/>
+        <v>3.9299999999999802</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f t="shared" si="7"/>
+        <v>3.93999999999998</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f t="shared" si="7"/>
+        <v>3.9499999999999797</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>3.9599999999999795</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98:B129" si="8">COUNTIF(X,"&lt;"&amp;x_)</f>
+        <v>82</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:C129" si="9">nx/n</f>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>3.9699999999999793</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="9"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>3.9799999999999791</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="9"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>3.9899999999999789</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="9"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <f t="shared" si="7"/>
+        <v>3.9999999999999787</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="9"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <f t="shared" si="7"/>
+        <v>4.0099999999999785</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="F12">
-        <f>(xi-x_0)^2</f>
-        <v>687.85552899999982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>3.1099999999999977</v>
-      </c>
-      <c r="B13">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-      <c r="D13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E13">
-        <f>VLOOKUP(xi,A:B,2)</f>
+      <c r="C103">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <f t="shared" si="7"/>
+        <v>4.0199999999999783</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <f t="shared" si="7"/>
+        <v>4.029999999999978</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <f t="shared" si="7"/>
+        <v>4.0399999999999778</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <f t="shared" si="7"/>
+        <v>4.0499999999999776</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <f t="shared" si="7"/>
+        <v>4.0599999999999774</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <f t="shared" si="7"/>
+        <v>4.0699999999999772</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <f t="shared" si="7"/>
+        <v>4.079999999999977</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <f t="shared" si="7"/>
+        <v>4.0899999999999768</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <f t="shared" si="7"/>
+        <v>4.0999999999999766</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="9"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <f t="shared" si="7"/>
+        <v>4.1099999999999763</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="F13">
-        <f>(xi-x_0)^2</f>
-        <v>672.20932900000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>3.1199999999999974</v>
-      </c>
-      <c r="B14">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-      <c r="D14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E14">
-        <f>VLOOKUP(xi,A:B,2)</f>
+      <c r="C113">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <f t="shared" si="7"/>
+        <v>4.1199999999999761</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <f t="shared" si="7"/>
+        <v>4.1299999999999759</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <f t="shared" si="7"/>
+        <v>4.1399999999999757</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <f t="shared" si="7"/>
+        <v>4.1499999999999755</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <f t="shared" si="7"/>
+        <v>4.1599999999999753</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <f t="shared" si="7"/>
+        <v>4.1699999999999751</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <f t="shared" si="7"/>
+        <v>4.1799999999999748</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <f t="shared" si="7"/>
+        <v>4.1899999999999746</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <f t="shared" si="7"/>
+        <v>4.1999999999999744</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <f t="shared" si="7"/>
+        <v>4.2099999999999742</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <f t="shared" si="7"/>
+        <v>4.219999999999974</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <f t="shared" si="7"/>
+        <v>4.2299999999999738</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <f t="shared" si="7"/>
+        <v>4.2399999999999736</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <f t="shared" si="7"/>
+        <v>4.2499999999999734</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <f t="shared" si="7"/>
+        <v>4.2599999999999731</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <f t="shared" si="7"/>
+        <v>4.2699999999999729</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <f t="shared" si="7"/>
+        <v>4.2799999999999727</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B161" si="10">COUNTIF(X,"&lt;"&amp;x_)</f>
+        <v>92</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C161" si="11">nx/n</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <f t="shared" si="7"/>
+        <v>4.2899999999999725</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <f t="shared" ref="A132:A155" si="12">A131+0.01</f>
+        <v>4.2999999999999723</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <f t="shared" si="12"/>
+        <v>4.3099999999999721</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <f t="shared" si="12"/>
+        <v>4.3199999999999719</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <f t="shared" si="12"/>
+        <v>4.3299999999999716</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <f t="shared" si="12"/>
+        <v>4.3399999999999714</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <f t="shared" si="12"/>
+        <v>4.3499999999999712</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <f t="shared" si="12"/>
+        <v>4.359999999999971</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <f t="shared" si="12"/>
+        <v>4.3699999999999708</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <f t="shared" si="12"/>
+        <v>4.3799999999999706</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <f t="shared" si="12"/>
+        <v>4.3899999999999704</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <f t="shared" si="12"/>
+        <v>4.3999999999999702</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="11"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <f t="shared" si="12"/>
+        <v>4.4099999999999699</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="F14">
-        <f>(xi-x_0)^2</f>
-        <v>661.87852899999984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>3.1299999999999972</v>
-      </c>
-      <c r="B15">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>3.139999999999997</v>
-      </c>
-      <c r="B16">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C16">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>3.1499999999999968</v>
-      </c>
-      <c r="B17">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>3.1599999999999966</v>
-      </c>
-      <c r="B18">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>3.1699999999999964</v>
-      </c>
-      <c r="B19">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>3.1799999999999962</v>
-      </c>
-      <c r="B20">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>3.1899999999999959</v>
-      </c>
-      <c r="B21">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>3.1999999999999957</v>
-      </c>
-      <c r="B22">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <f>nx/n</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>3.2099999999999955</v>
-      </c>
-      <c r="B23">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C23">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>3.2199999999999953</v>
-      </c>
-      <c r="B24">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>3.2299999999999951</v>
-      </c>
-      <c r="B25">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>3.2399999999999949</v>
-      </c>
-      <c r="B26">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C26">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>3.2499999999999947</v>
-      </c>
-      <c r="B27">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C27">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>3.2599999999999945</v>
-      </c>
-      <c r="B28">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C28">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>3.2699999999999942</v>
-      </c>
-      <c r="B29">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C29">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>3.279999999999994</v>
-      </c>
-      <c r="B30">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C30">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>3.2899999999999938</v>
-      </c>
-      <c r="B31">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C31">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>3.2999999999999936</v>
-      </c>
-      <c r="B32">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <f>nx/n</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>3.3099999999999934</v>
-      </c>
-      <c r="B33">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>3.3199999999999932</v>
-      </c>
-      <c r="B34">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>3.329999999999993</v>
-      </c>
-      <c r="B35">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>3.3399999999999928</v>
-      </c>
-      <c r="B36">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C36">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>3.3499999999999925</v>
-      </c>
-      <c r="B37">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C37">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>3.3599999999999923</v>
-      </c>
-      <c r="B38">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>3.3699999999999921</v>
-      </c>
-      <c r="B39">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>3.3799999999999919</v>
-      </c>
-      <c r="B40">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C40">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>3.3899999999999917</v>
-      </c>
-      <c r="B41">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C41">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>3.3999999999999915</v>
-      </c>
-      <c r="B42">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>44</v>
-      </c>
-      <c r="C42">
-        <f>nx/n</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>3.4099999999999913</v>
-      </c>
-      <c r="B43">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C43">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>3.419999999999991</v>
-      </c>
-      <c r="B44">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C44">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>3.4299999999999908</v>
-      </c>
-      <c r="B45">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C45">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>3.4399999999999906</v>
-      </c>
-      <c r="B46">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C46">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999904</v>
-      </c>
-      <c r="B47">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C47">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>3.4599999999999902</v>
-      </c>
-      <c r="B48">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C48">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>3.46999999999999</v>
-      </c>
-      <c r="B49">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C49">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>3.4799999999999898</v>
-      </c>
-      <c r="B50">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C50">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>3.4899999999999896</v>
-      </c>
-      <c r="B51">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C51">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999893</v>
-      </c>
-      <c r="B52">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C52">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>3.5099999999999891</v>
-      </c>
-      <c r="B53">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C53">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>3.5199999999999889</v>
-      </c>
-      <c r="B54">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C54">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>3.5299999999999887</v>
-      </c>
-      <c r="B55">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C55">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>3.5399999999999885</v>
-      </c>
-      <c r="B56">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C56">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>3.5499999999999883</v>
-      </c>
-      <c r="B57">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>3.5599999999999881</v>
-      </c>
-      <c r="B58">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C58">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>3.5699999999999878</v>
-      </c>
-      <c r="B59">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C59">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>3.5799999999999876</v>
-      </c>
-      <c r="B60">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C60">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>3.5899999999999874</v>
-      </c>
-      <c r="B61">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999872</v>
-      </c>
-      <c r="B62">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>63</v>
-      </c>
-      <c r="C62">
-        <f>nx/n</f>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>3.609999999999987</v>
-      </c>
-      <c r="B63">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C63">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>3.6199999999999868</v>
-      </c>
-      <c r="B64">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C64">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>3.6299999999999866</v>
-      </c>
-      <c r="B65">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>3.6399999999999864</v>
-      </c>
-      <c r="B66">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C66">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>3.6499999999999861</v>
-      </c>
-      <c r="B67">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C67">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" ref="A68:A131" si="1">A67+0.01</f>
-        <v>3.6599999999999859</v>
-      </c>
-      <c r="B68">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C68">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>3.6699999999999857</v>
-      </c>
-      <c r="B69">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C69">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>3.6799999999999855</v>
-      </c>
-      <c r="B70">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C70">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>3.6899999999999853</v>
-      </c>
-      <c r="B71">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C71">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>3.6999999999999851</v>
-      </c>
-      <c r="B72">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <f>nx/n</f>
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>3.7099999999999849</v>
-      </c>
-      <c r="B73">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>3.7199999999999847</v>
-      </c>
-      <c r="B74">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C74">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>3.7299999999999844</v>
-      </c>
-      <c r="B75">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C75">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>3.7399999999999842</v>
-      </c>
-      <c r="B76">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C76">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>3.749999999999984</v>
-      </c>
-      <c r="B77">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C77">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>3.7599999999999838</v>
-      </c>
-      <c r="B78">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C78">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>3.7699999999999836</v>
-      </c>
-      <c r="B79">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C79">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>3.7799999999999834</v>
-      </c>
-      <c r="B80">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C80">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>3.7899999999999832</v>
-      </c>
-      <c r="B81">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C81">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>3.7999999999999829</v>
-      </c>
-      <c r="B82">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>72</v>
-      </c>
-      <c r="C82">
-        <f>nx/n</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>3.8099999999999827</v>
-      </c>
-      <c r="B83">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C83">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>3.8199999999999825</v>
-      </c>
-      <c r="B84">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C84">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>3.8299999999999823</v>
-      </c>
-      <c r="B85">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C85">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>3.8399999999999821</v>
-      </c>
-      <c r="B86">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C86">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>3.8499999999999819</v>
-      </c>
-      <c r="B87">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C87">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>3.8599999999999817</v>
-      </c>
-      <c r="B88">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C88">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>3.8699999999999815</v>
-      </c>
-      <c r="B89">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C89">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>3.8799999999999812</v>
-      </c>
-      <c r="B90">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C90">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>3.889999999999981</v>
-      </c>
-      <c r="B91">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C91">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>3.8999999999999808</v>
-      </c>
-      <c r="B92">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>79</v>
-      </c>
-      <c r="C92">
-        <f>nx/n</f>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>3.9099999999999806</v>
-      </c>
-      <c r="B93">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C93">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>3.9199999999999804</v>
-      </c>
-      <c r="B94">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C94">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>3.9299999999999802</v>
-      </c>
-      <c r="B95">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C95">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>3.93999999999998</v>
-      </c>
-      <c r="B96">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C96">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>3.9499999999999797</v>
-      </c>
-      <c r="B97">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C97">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>3.9599999999999795</v>
-      </c>
-      <c r="B98">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C98">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>3.9699999999999793</v>
-      </c>
-      <c r="B99">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C99">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>3.9799999999999791</v>
-      </c>
-      <c r="B100">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C100">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>3.9899999999999789</v>
-      </c>
-      <c r="B101">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C101">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>3.9999999999999787</v>
-      </c>
-      <c r="B102">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>82</v>
-      </c>
-      <c r="C102">
-        <f>nx/n</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>4.0099999999999785</v>
-      </c>
-      <c r="B103">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C103">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="1"/>
-        <v>4.0199999999999783</v>
-      </c>
-      <c r="B104">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C104">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>4.029999999999978</v>
-      </c>
-      <c r="B105">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C105">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="1"/>
-        <v>4.0399999999999778</v>
-      </c>
-      <c r="B106">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C106">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="1"/>
-        <v>4.0499999999999776</v>
-      </c>
-      <c r="B107">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C107">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="1"/>
-        <v>4.0599999999999774</v>
-      </c>
-      <c r="B108">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C108">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f t="shared" si="1"/>
-        <v>4.0699999999999772</v>
-      </c>
-      <c r="B109">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C109">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f t="shared" si="1"/>
-        <v>4.079999999999977</v>
-      </c>
-      <c r="B110">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C110">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f t="shared" si="1"/>
-        <v>4.0899999999999768</v>
-      </c>
-      <c r="B111">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C111">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>4.0999999999999766</v>
-      </c>
-      <c r="B112">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>84</v>
-      </c>
-      <c r="C112">
-        <f>nx/n</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>4.1099999999999763</v>
-      </c>
-      <c r="B113">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C113">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>4.1199999999999761</v>
-      </c>
-      <c r="B114">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C114">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>4.1299999999999759</v>
-      </c>
-      <c r="B115">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C115">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>4.1399999999999757</v>
-      </c>
-      <c r="B116">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C116">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>4.1499999999999755</v>
-      </c>
-      <c r="B117">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C117">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>4.1599999999999753</v>
-      </c>
-      <c r="B118">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C118">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>4.1699999999999751</v>
-      </c>
-      <c r="B119">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C119">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>4.1799999999999748</v>
-      </c>
-      <c r="B120">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C120">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f t="shared" si="1"/>
-        <v>4.1899999999999746</v>
-      </c>
-      <c r="B121">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C121">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f t="shared" si="1"/>
-        <v>4.1999999999999744</v>
-      </c>
-      <c r="B122">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C122">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f t="shared" si="1"/>
-        <v>4.2099999999999742</v>
-      </c>
-      <c r="B123">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C123">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f t="shared" si="1"/>
-        <v>4.219999999999974</v>
-      </c>
-      <c r="B124">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C124">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f t="shared" si="1"/>
-        <v>4.2299999999999738</v>
-      </c>
-      <c r="B125">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C125">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f t="shared" si="1"/>
-        <v>4.2399999999999736</v>
-      </c>
-      <c r="B126">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C126">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <f t="shared" si="1"/>
-        <v>4.2499999999999734</v>
-      </c>
-      <c r="B127">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C127">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <f t="shared" si="1"/>
-        <v>4.2599999999999731</v>
-      </c>
-      <c r="B128">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C128">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <f t="shared" si="1"/>
-        <v>4.2699999999999729</v>
-      </c>
-      <c r="B129">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C129">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f t="shared" si="1"/>
-        <v>4.2799999999999727</v>
-      </c>
-      <c r="B130">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C130">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f t="shared" si="1"/>
-        <v>4.2899999999999725</v>
-      </c>
-      <c r="B131">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C131">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <f t="shared" ref="A132:A155" si="2">A131+0.01</f>
-        <v>4.2999999999999723</v>
-      </c>
-      <c r="B132">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C132">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <f t="shared" si="2"/>
-        <v>4.3099999999999721</v>
-      </c>
-      <c r="B133">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C133">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f t="shared" si="2"/>
-        <v>4.3199999999999719</v>
-      </c>
-      <c r="B134">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C134">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <f t="shared" si="2"/>
-        <v>4.3299999999999716</v>
-      </c>
-      <c r="B135">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C135">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <f t="shared" si="2"/>
-        <v>4.3399999999999714</v>
-      </c>
-      <c r="B136">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C136">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <f t="shared" si="2"/>
-        <v>4.3499999999999712</v>
-      </c>
-      <c r="B137">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C137">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <f t="shared" si="2"/>
-        <v>4.359999999999971</v>
-      </c>
-      <c r="B138">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C138">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <f t="shared" si="2"/>
-        <v>4.3699999999999708</v>
-      </c>
-      <c r="B139">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C139">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <f t="shared" si="2"/>
-        <v>4.3799999999999706</v>
-      </c>
-      <c r="B140">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C140">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <f t="shared" si="2"/>
-        <v>4.3899999999999704</v>
-      </c>
-      <c r="B141">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C141">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <f t="shared" si="2"/>
-        <v>4.3999999999999702</v>
-      </c>
-      <c r="B142">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>92</v>
-      </c>
-      <c r="C142">
-        <f>nx/n</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <f t="shared" si="2"/>
-        <v>4.4099999999999699</v>
-      </c>
-      <c r="B143">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+      <c r="C143">
+        <f t="shared" si="11"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <f t="shared" si="12"/>
+        <v>4.4199999999999697</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C143">
-        <f>nx/n</f>
+      <c r="C144">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <f t="shared" si="2"/>
-        <v>4.4199999999999697</v>
-      </c>
-      <c r="B144">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <f t="shared" si="12"/>
+        <v>4.4299999999999695</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C144">
-        <f>nx/n</f>
+      <c r="C145">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <f t="shared" si="2"/>
-        <v>4.4299999999999695</v>
-      </c>
-      <c r="B145">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <f t="shared" si="12"/>
+        <v>4.4399999999999693</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C145">
-        <f>nx/n</f>
+      <c r="C146">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <f t="shared" si="2"/>
-        <v>4.4399999999999693</v>
-      </c>
-      <c r="B146">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <f t="shared" si="12"/>
+        <v>4.4499999999999691</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C146">
-        <f>nx/n</f>
+      <c r="C147">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <f t="shared" si="2"/>
-        <v>4.4499999999999691</v>
-      </c>
-      <c r="B147">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <f t="shared" si="12"/>
+        <v>4.4599999999999689</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C147">
-        <f>nx/n</f>
+      <c r="C148">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <f t="shared" si="2"/>
-        <v>4.4599999999999689</v>
-      </c>
-      <c r="B148">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <f t="shared" si="12"/>
+        <v>4.4699999999999687</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C148">
-        <f>nx/n</f>
+      <c r="C149">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <f t="shared" si="2"/>
-        <v>4.4699999999999687</v>
-      </c>
-      <c r="B149">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <f t="shared" si="12"/>
+        <v>4.4799999999999685</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C149">
-        <f>nx/n</f>
+      <c r="C150">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <f t="shared" si="2"/>
-        <v>4.4799999999999685</v>
-      </c>
-      <c r="B150">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <f t="shared" si="12"/>
+        <v>4.4899999999999682</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C150">
-        <f>nx/n</f>
+      <c r="C151">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <f t="shared" si="2"/>
-        <v>4.4899999999999682</v>
-      </c>
-      <c r="B151">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <f t="shared" si="12"/>
+        <v>4.499999999999968</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C151">
-        <f>nx/n</f>
+      <c r="C152">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <f t="shared" si="2"/>
-        <v>4.499999999999968</v>
-      </c>
-      <c r="B152">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <f t="shared" si="12"/>
+        <v>4.5099999999999678</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C152">
-        <f>nx/n</f>
+      <c r="C153">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <f t="shared" si="2"/>
-        <v>4.5099999999999678</v>
-      </c>
-      <c r="B153">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <f t="shared" si="12"/>
+        <v>4.5199999999999676</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C153">
-        <f>nx/n</f>
+      <c r="C154">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <f t="shared" si="2"/>
-        <v>4.5199999999999676</v>
-      </c>
-      <c r="B154">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <f t="shared" si="12"/>
+        <v>4.5299999999999674</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="C154">
-        <f>nx/n</f>
+      <c r="C155">
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <f t="shared" si="2"/>
-        <v>4.5299999999999674</v>
-      </c>
-      <c r="B155">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
-        <v>96</v>
-      </c>
-      <c r="C155">
-        <f>nx/n</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156">
         <f>A155+0.01</f>
         <v>4.5399999999999672</v>
       </c>
       <c r="B156">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C156">
-        <f>nx/n</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157">
-        <f t="shared" ref="A157:A170" si="3">A156+0.01</f>
+        <f t="shared" ref="A157:A170" si="13">A156+0.01</f>
         <v>4.549999999999967</v>
       </c>
       <c r="B157">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C157">
-        <f>nx/n</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.5599999999999667</v>
       </c>
       <c r="B158">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C158">
-        <f>nx/n</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.5699999999999665</v>
       </c>
       <c r="B159">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C159">
-        <f>nx/n</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.5799999999999663</v>
       </c>
       <c r="B160">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C160">
-        <f>nx/n</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.5899999999999661</v>
       </c>
       <c r="B161">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="C161">
-        <f>nx/n</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.5999999999999659</v>
       </c>
       <c r="B162">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" ref="B162:B170" si="14">COUNTIF(X,"&lt;"&amp;x_)</f>
         <v>96</v>
       </c>
       <c r="C162">
-        <f>nx/n</f>
+        <f t="shared" ref="C162:C170" si="15">nx/n</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6099999999999657</v>
       </c>
       <c r="B163">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C163">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6199999999999655</v>
       </c>
       <c r="B164">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C164">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6299999999999653</v>
       </c>
       <c r="B165">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C165">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.639999999999965</v>
       </c>
       <c r="B166">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C166">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6499999999999648</v>
       </c>
       <c r="B167">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C167">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6599999999999646</v>
       </c>
       <c r="B168">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C168">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6699999999999644</v>
       </c>
       <c r="B169">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C169">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6799999999999642</v>
       </c>
       <c r="B170">
-        <f>COUNTIF(X,"&lt;"&amp;x_)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="C170">
-        <f>nx/n</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -8211,4 +8486,1430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <f t="shared" ref="A2:A33" si="0">IFERROR(SMALL(xnr,ROW(A1)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B33" si="1">IF(COUNTIF(X,xi)&gt;0,COUNTIF(X,xi),"")</f>
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C33" si="2">IFERROR((xi-x_0)^2,"")</f>
+        <v>0.23328900000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="2"/>
+        <v>0.14668900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>8.0088999999999952E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3.3489000000000102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>6.8890000000000305E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>1.3688999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>4.7089000000000034E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>0.10048899999999983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0.17388899999999985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0.26728899999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0.38068899999999944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>0.84088900000000044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>1.2476889999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A65" si="3">IFERROR(SMALL(xnr,ROW(A33)),"")</f>
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ref="B34:B65" si="4">IF(COUNTIF(X,xi)&gt;0,COUNTIF(X,xi),"")</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C65" si="5">IFERROR((xi-x_0)^2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:A101" si="6">IFERROR(SMALL(xnr,ROW(A65)),"")</f>
+        <v/>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B101" si="7">IF(COUNTIF(X,xi)&gt;0,COUNTIF(X,xi),"")</f>
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C101" si="8">IFERROR((xi-x_0)^2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/copy.xlsx
+++ b/copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 17" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="gamma">values!$B$8</definedName>
     <definedName name="h">values!$B$4</definedName>
     <definedName name="mi" localSheetId="3">freq!$B1</definedName>
-    <definedName name="mi_t" localSheetId="3">freq!$F1</definedName>
+    <definedName name="mi_t" localSheetId="3">freq!$E1</definedName>
     <definedName name="ms">Лист1!$B$2:$B$101</definedName>
     <definedName name="n">values!$B$1</definedName>
     <definedName name="nx">emp!$B1</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>h</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>zᵢ</t>
-  </si>
-  <si>
-    <t>pᵢ</t>
   </si>
   <si>
     <t>χ²</t>
@@ -1002,6 +999,7 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1144,11 +1142,11 @@
         </c:ser>
         <c:gapWidth val="5"/>
         <c:overlap val="-27"/>
-        <c:axId val="104928000"/>
-        <c:axId val="104929536"/>
+        <c:axId val="90230784"/>
+        <c:axId val="90232320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104928000"/>
+        <c:axId val="90230784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,14 +1187,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104929536"/>
+        <c:crossAx val="90232320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104929536"/>
+        <c:axId val="90232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1243,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104928000"/>
+        <c:crossAx val="90230784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1259,6 +1257,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1324,7 +1323,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2431,11 +2430,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="153202048"/>
-        <c:axId val="153207936"/>
+        <c:axId val="91388544"/>
+        <c:axId val="91390336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153202048"/>
+        <c:axId val="91388544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.8"/>
@@ -2492,12 +2491,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153207936"/>
+        <c:crossAx val="91390336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153207936"/>
+        <c:axId val="91390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -2554,7 +2553,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153202048"/>
+        <c:crossAx val="91388544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2633,7 +2632,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3758,7 +3757,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB328F1F-A688-89DE-30B1-ACA0E54DEDEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB328F1F-A688-89DE-30B1-ACA0E54DEDEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3801,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEED66FB-A3E8-9133-AAB5-63F621C591D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEED66FB-A3E8-9133-AAB5-63F621C591D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3850,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A21C9A-99BD-1172-DB08-DB8E5E2D714E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23A21C9A-99BD-1172-DB08-DB8E5E2D714E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3892,7 +3891,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE55C99-65F9-D163-BE68-6798F8A35F63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BE55C99-65F9-D163-BE68-6798F8A35F63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4202,7 +4201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4212,7 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -5569,8 +5568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5710,16 +5709,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <f>SUM(freq!G2:G11)</f>
-        <v>198.01642847894334</v>
+        <f>SUM(freq!F2:F11)</f>
+        <v>6.0787534838802516E+22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <f>MODE(X)</f>
@@ -5728,7 +5727,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <f>MEDIAN(X)</f>
@@ -5742,19 +5741,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -5768,16 +5768,13 @@
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <f>MIN(X)</f>
         <v>3</v>
@@ -5791,265 +5788,229 @@
         <v>3.08</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D12" si="0">(A2-x_0)/s</f>
-        <v>-1.0588136291231456</v>
+        <f>(C2-x_0)/s</f>
+        <v>-0.88344077129736565</v>
       </c>
       <c r="E2">
-        <f>D3-D2</f>
-        <v>0.35074571565155988</v>
+        <f>NORMDIST(D2,x_0,s,FALSE)</f>
+        <v>1.1125267078237427E-20</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F11" si="1">E2*n</f>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G11" si="2">(mi-mi_t)^2/mi_t</f>
-        <v>2.3477934417007704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <f>(mi-mi_t)^2/mi_t</f>
+        <v>6.0762586214433473E+22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
-        <f t="shared" ref="A3:A12" si="3">A2+h</f>
+        <f t="shared" ref="A3:A12" si="0">A2+h</f>
         <v>3.16</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B10" si="4">COUNTIFS(X,"&gt;="&amp;A3,X,"&lt;"&amp;A4)</f>
+        <f t="shared" ref="B3:B10" si="1">COUNTIFS(X,"&gt;="&amp;A3,X,"&lt;"&amp;A4)</f>
         <v>18</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="5">(A3+A4)/2</f>
+        <f t="shared" ref="C3:C11" si="2">(A3+A4)/2</f>
         <v>3.24</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>-0.70806791347158571</v>
+        <f>(C3-x_0)/s</f>
+        <v>-0.53269505564580577</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="6">D4-D3</f>
-        <v>0.35074571565155982</v>
+        <f>NORMDIST(D3,x_0,s,FALSE)</f>
+        <v>1.3009049025740983E-17</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="2"/>
-        <v>8.312032937937806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f t="shared" ref="F2:F11" si="3">(mi-mi_t)^2/mi_t</f>
+        <v>2.4905740562503975E+19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="D4">
+        <f>(C4-x_0)/s</f>
+        <v>-0.18194933999424595</v>
+      </c>
+      <c r="E4">
+        <f>NORMDIST(D4,x_0,s,FALSE)</f>
+        <v>8.4222600954510625E-15</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="3"/>
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="5"/>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-0.35732219782002589</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155988</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>7.3669282181628892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4.2862604088299176E+16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3.4800000000000004</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3.5600000000000005</v>
+      </c>
+      <c r="D5">
+        <f>(C5-x_0)/s</f>
+        <v>0.1687963756573139</v>
+      </c>
+      <c r="E5">
+        <f>NORMDIST(D5,x_0,s,FALSE)</f>
+        <v>3.0189765660082274E-12</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="3"/>
-        <v>3.4800000000000004</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="5"/>
-        <v>3.5600000000000005</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-6.576482168466017E-3</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155982</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>20.899255293112887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>21199237092646.344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
+        <f t="shared" si="0"/>
+        <v>3.6400000000000006</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>3.7200000000000006</v>
+      </c>
+      <c r="D6">
+        <f>(C6-x_0)/s</f>
+        <v>0.51954209130887374</v>
+      </c>
+      <c r="E6">
+        <f>NORMDIST(D6,x_0,s,FALSE)</f>
+        <v>5.9915450458890484E-10</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="3"/>
-        <v>3.6400000000000006</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="5"/>
-        <v>3.7200000000000006</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.34416923348309381</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155988</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>33.103082248405308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1669018577.2496469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>3.8800000000000008</v>
+      </c>
+      <c r="D7">
+        <f>(C7-x_0)/s</f>
+        <v>0.87028780696043362</v>
+      </c>
+      <c r="E7">
+        <f>NORMDIST(D7,x_0,s,FALSE)</f>
+        <v>6.5836374910895514E-8</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="3"/>
-        <v>3.8000000000000007</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="4"/>
+        <v>1518917146.0095553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3.9600000000000009</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="5"/>
-        <v>3.8800000000000008</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.69491494913465368</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155976</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>35.074571565155978</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>17.92563989008864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>4.0400000000000009</v>
+      </c>
+      <c r="D8">
+        <f>(C8-x_0)/s</f>
+        <v>1.2210335226119935</v>
+      </c>
+      <c r="E8">
+        <f>NORMDIST(D8,x_0,s,FALSE)</f>
+        <v>4.005354727104443E-6</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="3"/>
-        <v>3.9600000000000009</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="5"/>
-        <v>4.0400000000000009</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.0456606647862134</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155988</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>17.925639890088643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>24966557.69742861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
+        <f t="shared" si="0"/>
+        <v>4.120000000000001</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="D9">
+        <f>(C9-x_0)/s</f>
+        <v>1.5717792382635534</v>
+      </c>
+      <c r="E9">
+        <f>NORMDIST(D9,x_0,s,FALSE)</f>
+        <v>1.3491618543612051E-4</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="3"/>
-        <v>4.120000000000001</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="5"/>
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.3964063804377733</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155988</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>35.074571565155985</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>35.074571565155985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.3491618543612051E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
+        <f t="shared" si="0"/>
+        <v>4.2800000000000011</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>4.3600000000000012</v>
+      </c>
+      <c r="D10">
+        <f>(C10-x_0)/s</f>
+        <v>1.9225249539151132</v>
+      </c>
+      <c r="E10">
+        <f>NORMDIST(D10,x_0,s,FALSE)</f>
+        <v>2.5161418234511328E-3</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="3"/>
-        <v>4.2800000000000011</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="5"/>
-        <v>4.3600000000000012</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.7471520960893332</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="6"/>
-        <v>0.3507457156515601</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>35.074571565156006</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>27.53074249714523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>6350.9445482942265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.4400000000000013</v>
       </c>
       <c r="B11">
@@ -6057,34 +6018,26 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4.5200000000000014</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2.0978978117408933</v>
+        <f>(C11-x_0)/s</f>
+        <v>2.2732706695666729</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
-        <v>0.35074571565155965</v>
+        <f>NORMDIST(D11,x_0,s,FALSE)</f>
+        <v>2.5980898948553623E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>35.074571565155964</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>27.530742497145191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f t="shared" si="3"/>
+        <v>607.86302455485077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2.4486435273924529</v>
       </c>
     </row>
   </sheetData>
